--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.014481</v>
+        <v>11.778396</v>
       </c>
       <c r="H2">
-        <v>36.043443</v>
+        <v>35.335188</v>
       </c>
       <c r="I2">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="J2">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>453.9961875662689</v>
+        <v>403.92601563678</v>
       </c>
       <c r="R2">
-        <v>4085.965688096421</v>
+        <v>3635.33414073102</v>
       </c>
       <c r="S2">
-        <v>0.09119147349112032</v>
+        <v>0.06740815093494432</v>
       </c>
       <c r="T2">
-        <v>0.09119147349112033</v>
+        <v>0.06740815093494432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.014481</v>
+        <v>11.778396</v>
       </c>
       <c r="H3">
-        <v>36.043443</v>
+        <v>35.335188</v>
       </c>
       <c r="I3">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="J3">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
-        <v>331.8704179245079</v>
+        <v>325.349151827728</v>
       </c>
       <c r="R3">
-        <v>2986.833761320572</v>
+        <v>2928.142366449552</v>
       </c>
       <c r="S3">
-        <v>0.06666080739771024</v>
+        <v>0.05429505375727186</v>
       </c>
       <c r="T3">
-        <v>0.06666080739771026</v>
+        <v>0.05429505375727187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.014481</v>
+        <v>11.778396</v>
       </c>
       <c r="H4">
-        <v>36.043443</v>
+        <v>35.335188</v>
       </c>
       <c r="I4">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="J4">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>110.597410562329</v>
+        <v>386.4690036527321</v>
       </c>
       <c r="R4">
-        <v>995.376695060961</v>
+        <v>3478.221032874588</v>
       </c>
       <c r="S4">
-        <v>0.02221503420005924</v>
+        <v>0.06449488253147512</v>
       </c>
       <c r="T4">
-        <v>0.02221503420005925</v>
+        <v>0.06449488253147513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.014481</v>
+        <v>11.778396</v>
       </c>
       <c r="H5">
-        <v>36.043443</v>
+        <v>35.335188</v>
       </c>
       <c r="I5">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="J5">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>58.51705033800999</v>
+        <v>76.80321012126001</v>
       </c>
       <c r="R5">
-        <v>526.65345304209</v>
+        <v>691.2288910913401</v>
       </c>
       <c r="S5">
-        <v>0.01175396664294294</v>
+        <v>0.01281710555825542</v>
       </c>
       <c r="T5">
-        <v>0.01175396664294294</v>
+        <v>0.01281710555825542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.014481</v>
+        <v>11.778396</v>
       </c>
       <c r="H6">
-        <v>36.043443</v>
+        <v>35.335188</v>
       </c>
       <c r="I6">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="J6">
-        <v>0.2338577750460931</v>
+        <v>0.2246658979638982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>209.278422342715</v>
+        <v>153.705256689488</v>
       </c>
       <c r="R6">
-        <v>1883.505801084435</v>
+        <v>1383.347310205392</v>
       </c>
       <c r="S6">
-        <v>0.0420364933142604</v>
+        <v>0.02565070518195147</v>
       </c>
       <c r="T6">
-        <v>0.0420364933142604</v>
+        <v>0.02565070518195148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>33.48849</v>
       </c>
       <c r="I7">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="J7">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>421.8144972263366</v>
+        <v>382.81591526815</v>
       </c>
       <c r="R7">
-        <v>3796.33047503703</v>
+        <v>3445.343237413349</v>
       </c>
       <c r="S7">
-        <v>0.08472733162846423</v>
+        <v>0.06388524630188393</v>
       </c>
       <c r="T7">
-        <v>0.08472733162846424</v>
+        <v>0.06388524630188393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>33.48849</v>
       </c>
       <c r="I8">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="J8">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>308.3456586531067</v>
@@ -948,10 +948,10 @@
         <v>2775.11092787796</v>
       </c>
       <c r="S8">
-        <v>0.06193553101822557</v>
+        <v>0.051457469670173</v>
       </c>
       <c r="T8">
-        <v>0.06193553101822558</v>
+        <v>0.05145746967017301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>33.48849</v>
       </c>
       <c r="I9">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="J9">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>102.7576715588033</v>
+        <v>366.2712467847767</v>
       </c>
       <c r="R9">
-        <v>924.8190440292301</v>
+        <v>3296.44122106299</v>
       </c>
       <c r="S9">
-        <v>0.02064031315372235</v>
+        <v>0.06112423198955327</v>
       </c>
       <c r="T9">
-        <v>0.02064031315372236</v>
+        <v>0.06112423198955328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>33.48849</v>
       </c>
       <c r="I10">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="J10">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>54.36904723763332</v>
+        <v>72.78929813855</v>
       </c>
       <c r="R10">
-        <v>489.3214251387</v>
+        <v>655.10368324695</v>
       </c>
       <c r="S10">
-        <v>0.01092078230102846</v>
+        <v>0.01214725421346508</v>
       </c>
       <c r="T10">
-        <v>0.01092078230102846</v>
+        <v>0.01214725421346509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>33.48849</v>
       </c>
       <c r="I11">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="J11">
-        <v>0.217280678792349</v>
+        <v>0.2129243426497412</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>194.4436427407833</v>
+        <v>145.6722673045733</v>
       </c>
       <c r="R11">
-        <v>1749.99278466705</v>
+        <v>1311.05040574116</v>
       </c>
       <c r="S11">
-        <v>0.03905672069090836</v>
+        <v>0.02431014047466593</v>
       </c>
       <c r="T11">
-        <v>0.03905672069090837</v>
+        <v>0.02431014047466594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.04190333333333</v>
+        <v>13.44231133333333</v>
       </c>
       <c r="H12">
-        <v>39.12571</v>
+        <v>40.326934</v>
       </c>
       <c r="I12">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="J12">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>492.8198223411522</v>
+        <v>460.9880036146234</v>
       </c>
       <c r="R12">
-        <v>4435.37840107037</v>
+        <v>4148.892032531609</v>
       </c>
       <c r="S12">
-        <v>0.09898974263602567</v>
+        <v>0.07693079357086023</v>
       </c>
       <c r="T12">
-        <v>0.09898974263602568</v>
+        <v>0.07693079357086023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.04190333333333</v>
+        <v>13.44231133333333</v>
       </c>
       <c r="H13">
-        <v>39.12571</v>
+        <v>40.326934</v>
       </c>
       <c r="I13">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="J13">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>360.2504269443155</v>
+        <v>371.3107108051262</v>
       </c>
       <c r="R13">
-        <v>3242.25384249884</v>
+        <v>3341.796397246136</v>
       </c>
       <c r="S13">
-        <v>0.0723613284837596</v>
+        <v>0.06196522994007997</v>
       </c>
       <c r="T13">
-        <v>0.07236132848375962</v>
+        <v>0.06196522994007998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.04190333333333</v>
+        <v>13.44231133333333</v>
       </c>
       <c r="H14">
-        <v>39.12571</v>
+        <v>40.326934</v>
       </c>
       <c r="I14">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="J14">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>120.0551848615744</v>
+        <v>441.0648672181816</v>
       </c>
       <c r="R14">
-        <v>1080.49666375417</v>
+        <v>3969.583804963634</v>
       </c>
       <c r="S14">
-        <v>0.02411476022841658</v>
+        <v>0.0736059723577684</v>
       </c>
       <c r="T14">
-        <v>0.02411476022841658</v>
+        <v>0.07360597235776842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.04190333333333</v>
+        <v>13.44231133333333</v>
       </c>
       <c r="H15">
-        <v>39.12571</v>
+        <v>40.326934</v>
       </c>
       <c r="I15">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="J15">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>63.52115533414443</v>
+        <v>87.65307787659668</v>
       </c>
       <c r="R15">
-        <v>571.6903980073</v>
+        <v>788.8777008893701</v>
       </c>
       <c r="S15">
-        <v>0.01275911100450251</v>
+        <v>0.01462775774445573</v>
       </c>
       <c r="T15">
-        <v>0.01275911100450251</v>
+        <v>0.01462775774445574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.04190333333333</v>
+        <v>13.44231133333333</v>
       </c>
       <c r="H16">
-        <v>39.12571</v>
+        <v>40.326934</v>
       </c>
       <c r="I16">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="J16">
-        <v>0.2538562003551846</v>
+        <v>0.256404093257997</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N16">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O16">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P16">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q16">
-        <v>227.1749361413277</v>
+        <v>175.4189546683617</v>
       </c>
       <c r="R16">
-        <v>2044.57442527195</v>
+        <v>1578.770592015256</v>
       </c>
       <c r="S16">
-        <v>0.04563125800248026</v>
+        <v>0.02927433964483265</v>
       </c>
       <c r="T16">
-        <v>0.04563125800248027</v>
+        <v>0.02927433964483266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.535584666666666</v>
+        <v>3.363226</v>
       </c>
       <c r="H17">
-        <v>10.606754</v>
+        <v>10.089678</v>
       </c>
       <c r="I17">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="J17">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N17">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q17">
-        <v>133.6006074240264</v>
+        <v>115.33781661493</v>
       </c>
       <c r="R17">
-        <v>1202.405466816238</v>
+        <v>1038.04034953437</v>
       </c>
       <c r="S17">
-        <v>0.02683554748689891</v>
+        <v>0.01924785393837403</v>
       </c>
       <c r="T17">
-        <v>0.02683554748689892</v>
+        <v>0.01924785393837403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.535584666666666</v>
+        <v>3.363226</v>
       </c>
       <c r="H18">
-        <v>10.606754</v>
+        <v>10.089678</v>
       </c>
       <c r="I18">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="J18">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P18">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q18">
-        <v>97.6618100219351</v>
+        <v>92.90082677683466</v>
       </c>
       <c r="R18">
-        <v>878.9562901974159</v>
+        <v>836.1074409915119</v>
       </c>
       <c r="S18">
-        <v>0.01961673820974574</v>
+        <v>0.01550351477975901</v>
       </c>
       <c r="T18">
-        <v>0.01961673820974574</v>
+        <v>0.01550351477975901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.535584666666666</v>
+        <v>3.363226</v>
       </c>
       <c r="H19">
-        <v>10.606754</v>
+        <v>10.089678</v>
       </c>
       <c r="I19">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="J19">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N19">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O19">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P19">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q19">
-        <v>32.54626720515089</v>
+        <v>110.3531076115087</v>
       </c>
       <c r="R19">
-        <v>292.916404846358</v>
+        <v>993.177968503578</v>
       </c>
       <c r="S19">
-        <v>0.006537372216677944</v>
+        <v>0.01841599363757195</v>
       </c>
       <c r="T19">
-        <v>0.006537372216677946</v>
+        <v>0.01841599363757195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.535584666666666</v>
+        <v>3.363226</v>
       </c>
       <c r="H20">
-        <v>10.606754</v>
+        <v>10.089678</v>
       </c>
       <c r="I20">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="J20">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N20">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O20">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P20">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q20">
-        <v>17.22021832766888</v>
+        <v>21.93053732981</v>
       </c>
       <c r="R20">
-        <v>154.98196494902</v>
+        <v>197.37483596829</v>
       </c>
       <c r="S20">
-        <v>0.003458921299663342</v>
+        <v>0.003659821138486864</v>
       </c>
       <c r="T20">
-        <v>0.003458921299663343</v>
+        <v>0.003659821138486865</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.535584666666666</v>
+        <v>3.363226</v>
       </c>
       <c r="H21">
-        <v>10.606754</v>
+        <v>10.089678</v>
       </c>
       <c r="I21">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="J21">
-        <v>0.06881894970192633</v>
+        <v>0.06415153551854848</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N21">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O21">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P21">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q21">
-        <v>61.58581307832555</v>
+        <v>43.88929661006132</v>
       </c>
       <c r="R21">
-        <v>554.2723177049299</v>
+        <v>395.0036694905519</v>
       </c>
       <c r="S21">
-        <v>0.01237037048894038</v>
+        <v>0.007324352024356619</v>
       </c>
       <c r="T21">
-        <v>0.01237037048894038</v>
+        <v>0.007324352024356621</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.62036266666667</v>
+        <v>12.679511</v>
       </c>
       <c r="H22">
-        <v>34.861088</v>
+        <v>38.038533</v>
       </c>
       <c r="I22">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="J22">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N22">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q22">
-        <v>439.1034742827484</v>
+        <v>434.828677729355</v>
       </c>
       <c r="R22">
-        <v>3951.931268544736</v>
+        <v>3913.458099564195</v>
       </c>
       <c r="S22">
-        <v>0.08820006407888427</v>
+        <v>0.07256526196515099</v>
       </c>
       <c r="T22">
-        <v>0.08820006407888428</v>
+        <v>0.07256526196515099</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.62036266666667</v>
+        <v>12.679511</v>
       </c>
       <c r="H23">
-        <v>34.861088</v>
+        <v>38.038533</v>
       </c>
       <c r="I23">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="J23">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P23">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q23">
-        <v>320.9838705992391</v>
+        <v>350.2402321538813</v>
       </c>
       <c r="R23">
-        <v>2888.854835393151</v>
+        <v>3152.162089384932</v>
       </c>
       <c r="S23">
-        <v>0.06447409235689908</v>
+        <v>0.05844893747509591</v>
       </c>
       <c r="T23">
-        <v>0.06447409235689909</v>
+        <v>0.05844893747509592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.62036266666667</v>
+        <v>12.679511</v>
       </c>
       <c r="H24">
-        <v>34.861088</v>
+        <v>38.038533</v>
       </c>
       <c r="I24">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="J24">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N24">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O24">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P24">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q24">
-        <v>106.9694163841529</v>
+        <v>416.0361039800204</v>
       </c>
       <c r="R24">
-        <v>962.724747457376</v>
+        <v>3744.324935820183</v>
       </c>
       <c r="S24">
-        <v>0.02148630091113312</v>
+        <v>0.06942911178241473</v>
       </c>
       <c r="T24">
-        <v>0.02148630091113313</v>
+        <v>0.06942911178241475</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.62036266666667</v>
+        <v>12.679511</v>
       </c>
       <c r="H25">
-        <v>34.861088</v>
+        <v>38.038533</v>
       </c>
       <c r="I25">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="J25">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N25">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O25">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P25">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q25">
-        <v>56.59747991704888</v>
+        <v>82.679097185035</v>
       </c>
       <c r="R25">
-        <v>509.3773192534399</v>
+        <v>744.1118746653151</v>
       </c>
       <c r="S25">
-        <v>0.01136839412063654</v>
+        <v>0.01379768781029783</v>
       </c>
       <c r="T25">
-        <v>0.01136839412063655</v>
+        <v>0.01379768781029783</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.62036266666667</v>
+        <v>12.679511</v>
       </c>
       <c r="H26">
-        <v>34.861088</v>
+        <v>38.038533</v>
       </c>
       <c r="I26">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="J26">
-        <v>0.226186396104447</v>
+        <v>0.2418541306098152</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N26">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O26">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P26">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q26">
-        <v>202.4133348689955</v>
+        <v>165.4645923733746</v>
       </c>
       <c r="R26">
-        <v>1821.72001382096</v>
+        <v>1489.181331360372</v>
       </c>
       <c r="S26">
-        <v>0.04065754463689396</v>
+        <v>0.02761313157685568</v>
       </c>
       <c r="T26">
-        <v>0.04065754463689397</v>
+        <v>0.02761313157685569</v>
       </c>
     </row>
   </sheetData>
